--- a/metadata/variabelen.xlsx
+++ b/metadata/variabelen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahtanjung/Projects/ceda-fairnessawareness/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BA0675C2-4C41-5141-9B95-B0676341FDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A739B7B9-4084-E343-8B27-7F107B4665F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{C23F249F-BD44-6E44-9A12-289A2EF10B11}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C23F249F-BD44-6E44-9A12-289A2EF10B11}"/>
   </bookViews>
   <sheets>
     <sheet name="variabelen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="277" uniqueCount="276">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="286" uniqueCount="285">
   <si>
     <t>Variable</t>
   </si>
@@ -853,6 +853,33 @@
   </si>
   <si>
     <t>apcg_gebied</t>
+  </si>
+  <si>
+    <t>wis</t>
+  </si>
+  <si>
+    <t>natuurkunde_ce_cijfer</t>
+  </si>
+  <si>
+    <t>engels_ce_cijfer</t>
+  </si>
+  <si>
+    <t>nederlands_ce_cijfer</t>
+  </si>
+  <si>
+    <t>wiskunde_ce_cijfer</t>
+  </si>
+  <si>
+    <t>entl_missing</t>
+  </si>
+  <si>
+    <t>wis_missing</t>
+  </si>
+  <si>
+    <t>netl_missing</t>
+  </si>
+  <si>
+    <t>nat_missing</t>
   </si>
 </sst>
 </file>
@@ -1734,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CD9987-445F-6E40-92B8-03680A3F2FFA}">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2980,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2991,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -3002,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -3013,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -3024,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -3035,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -3046,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -3057,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3068,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -3079,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -3090,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -3101,18 +3128,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>125</v>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -3123,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -3134,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -3145,29 +3175,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3178,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -3189,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3200,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -3211,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -3222,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -3233,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -3244,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -3255,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -3266,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -3277,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -3288,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -3299,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -3310,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -3321,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -4728,6 +4764,64 @@
       </c>
       <c r="D270" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>276</v>
+      </c>
+      <c r="B271" t="b">
+        <v>1</v>
+      </c>
+      <c r="C271" t="b">
+        <v>0</v>
+      </c>
+      <c r="D271" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>281</v>
+      </c>
+      <c r="B272" t="b">
+        <v>1</v>
+      </c>
+      <c r="C272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>282</v>
+      </c>
+      <c r="B273" t="b">
+        <v>1</v>
+      </c>
+      <c r="C273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>283</v>
+      </c>
+      <c r="B274" t="b">
+        <v>1</v>
+      </c>
+      <c r="C274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>284</v>
+      </c>
+      <c r="B275" t="b">
+        <v>1</v>
+      </c>
+      <c r="C275" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/variabelen.xlsx
+++ b/metadata/variabelen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahtanjung/Projects/ceda-fairnessawareness/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A739B7B9-4084-E343-8B27-7F107B4665F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A130AC02-E770-A24A-BC68-B068D85203D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C23F249F-BD44-6E44-9A12-289A2EF10B11}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{C23F249F-BD44-6E44-9A12-289A2EF10B11}"/>
   </bookViews>
   <sheets>
     <sheet name="variabelen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="286" uniqueCount="285">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="290" uniqueCount="289">
   <si>
     <t>Variable</t>
   </si>
@@ -880,6 +880,18 @@
   </si>
   <si>
     <t>nat_missing</t>
+  </si>
+  <si>
+    <t>engels_ce_cijfer_mist</t>
+  </si>
+  <si>
+    <t>wiskunde_ce_cijfer_mist</t>
+  </si>
+  <si>
+    <t>nederlands_ce_cijfer_mist</t>
+  </si>
+  <si>
+    <t>natuurkunde_ce_cijfer_mist</t>
   </si>
 </sst>
 </file>
@@ -1763,8 +1775,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CD9987-445F-6E40-92B8-03680A3F2FFA}">
   <dimension ref="A1:D275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="D260" sqref="D260"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4790,8 +4802,11 @@
       <c r="C272" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D272" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>282</v>
       </c>
@@ -4801,8 +4816,11 @@
       <c r="C273" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D273" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>283</v>
       </c>
@@ -4812,8 +4830,11 @@
       <c r="C274" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D274" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>284</v>
       </c>
@@ -4822,6 +4843,9 @@
       </c>
       <c r="C275" t="b">
         <v>0</v>
+      </c>
+      <c r="D275" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/variabelen.xlsx
+++ b/metadata/variabelen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahtanjung/Projects/ceda-fairnessawareness/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A130AC02-E770-A24A-BC68-B068D85203D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B8DC5DC1-8D1C-8D4A-8C30-BB4F405DB843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{C23F249F-BD44-6E44-9A12-289A2EF10B11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="290" uniqueCount="289">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="294" uniqueCount="293">
   <si>
     <t>Variable</t>
   </si>
@@ -892,6 +892,18 @@
   </si>
   <si>
     <t>natuurkunde_ce_cijfer_mist</t>
+  </si>
+  <si>
+    <t>cijfer_schoolexamen</t>
+  </si>
+  <si>
+    <t>gemiddeld_cijfer_ce</t>
+  </si>
+  <si>
+    <t>gemiddeld_cijfer_se</t>
+  </si>
+  <si>
+    <t>vooropleiding</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CD9987-445F-6E40-92B8-03680A3F2FFA}">
-  <dimension ref="A1:D275"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="D276" sqref="D276"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3084,6 +3096,9 @@
       <c r="C118" t="b">
         <v>0</v>
       </c>
+      <c r="D118" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -4846,6 +4861,31 @@
       </c>
       <c r="D275" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>289</v>
+      </c>
+      <c r="B276" t="b">
+        <v>1</v>
+      </c>
+      <c r="C276" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>292</v>
+      </c>
+      <c r="B277" t="b">
+        <v>1</v>
+      </c>
+      <c r="C277" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/variabelen.xlsx
+++ b/metadata/variabelen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahtanjung/Projects/ceda-fairnessawareness/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B8DC5DC1-8D1C-8D4A-8C30-BB4F405DB843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EAC11ADD-836D-5142-80AB-0FB888F09994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{C23F249F-BD44-6E44-9A12-289A2EF10B11}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="30240" windowHeight="17780" xr2:uid="{C23F249F-BD44-6E44-9A12-289A2EF10B11}"/>
   </bookViews>
   <sheets>
     <sheet name="variabelen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="294" uniqueCount="293">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="295" uniqueCount="294">
   <si>
     <t>Variable</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>vooropleiding</t>
+  </si>
+  <si>
+    <t>aansluiting</t>
   </si>
 </sst>
 </file>
@@ -1785,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CD9987-445F-6E40-92B8-03680A3F2FFA}">
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4885,6 +4888,17 @@
         <v>1</v>
       </c>
       <c r="C277" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>293</v>
+      </c>
+      <c r="B278" t="b">
+        <v>1</v>
+      </c>
+      <c r="C278" t="b">
         <v>1</v>
       </c>
     </row>
